--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794767.0620187755</v>
+        <v>808493.4201561932</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057047</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>79636.80000449967</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739735</v>
+        <v>133695.6025739733</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739735</v>
+        <v>133695.6025739733</v>
       </c>
       <c r="D6" t="n">
         <v>133695.6025739734</v>
       </c>
       <c r="E6" t="n">
-        <v>-39151.56247721938</v>
+        <v>-39151.56247721944</v>
       </c>
       <c r="F6" t="n">
         <v>93948.43752278063</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>808493.4201561932</v>
+        <v>724708.0183945681</v>
       </c>
     </row>
     <row r="7">
@@ -26316,46 +26316,46 @@
         <v>634939.1625057046</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057046</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057047</v>
       </c>
       <c r="E2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322886</v>
+        <v>177196.8496322885</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133695.6025739733</v>
+        <v>133651.4667952922</v>
       </c>
       <c r="C6" t="n">
-        <v>133695.6025739733</v>
+        <v>133651.4667952923</v>
       </c>
       <c r="D6" t="n">
-        <v>133695.6025739734</v>
+        <v>133651.4667952923</v>
       </c>
       <c r="E6" t="n">
-        <v>-39151.56247721944</v>
+        <v>-53961.57931633343</v>
       </c>
       <c r="F6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="G6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="H6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="I6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="J6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="K6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="L6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="M6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="N6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="O6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
       <c r="P6" t="n">
-        <v>93948.43752278063</v>
+        <v>79138.42068366664</v>
       </c>
     </row>
   </sheetData>
